--- a/DebugLog.xlsx
+++ b/DebugLog.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Error</t>
   </si>
@@ -32,15 +33,6 @@
     <t>Cause</t>
   </si>
   <si>
-    <t>Attamp1</t>
-  </si>
-  <si>
-    <t>Attamp2</t>
-  </si>
-  <si>
-    <t>Attamp3</t>
-  </si>
-  <si>
     <t>Solution</t>
   </si>
   <si>
@@ -51,6 +43,54 @@
   </si>
   <si>
     <t>Wrong float element</t>
+  </si>
+  <si>
+    <t>Attampt</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Data format and arrangement change</t>
+  </si>
+  <si>
+    <t>Colume lable overlay</t>
+  </si>
+  <si>
+    <t>Wrong format in word writing function</t>
+  </si>
+  <si>
+    <t>Add "\n" to write word on the next line</t>
+  </si>
+  <si>
+    <t>Line drawing function doesn't work</t>
+  </si>
+  <si>
+    <t>Incorrect pull out from table</t>
+  </si>
+  <si>
+    <t>Use variable from table of data</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Data lable mess</t>
+  </si>
+  <si>
+    <t>Value too big to be displayed in order</t>
+  </si>
+  <si>
+    <t>Reduce number of value showing</t>
+  </si>
+  <si>
+    <t>Manually input lable</t>
+  </si>
+  <si>
+    <t>Alternative solution</t>
+  </si>
+  <si>
+    <t>"Found one too many to match it"</t>
   </si>
 </sst>
 </file>
@@ -368,24 +408,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -393,68 +431,116 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
